--- a/biology/Zoologie/Frank_Finn/Frank_Finn.xlsx
+++ b/biology/Zoologie/Frank_Finn/Frank_Finn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Finn est un ornithologue britannique, né en 1868 à Maidstone et mort le 1er octobre 1932.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au Maidstone Grammar School et au Brasenose College d'Oxford. Il participe à une expédition de collection de spécimens d'histoire naturelle dans l'est de l'Afrique en 1892. Il devient le premier assistant du directeur du Muséum indien de Calcutta en 1894 et directeur (Deputy Superintendent) de 1895 à 1903. Il retourne alors en Angleterre où il dirige l'Avicultural Magazine en 1909-1910. Finn est un auteur prolifique. Il est membre de la British Ornithologists' Union et de la Zoological Society of London.
 Il découvre le tisserin de Finn, Ploceus megarhynchus. Celui-ci est décrit par Allan Octavian Hume (1829-1912) qui lui dédie l'espèce.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications[1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1901 : Birds of Calcutta, Caledonian Steam Printing Works (Calcutta) : 89 p. – réédité en 1904 par Thacker, Spink &amp; Co. (Calcutta) : 136 p. ; réédité en 1917 chez les mêmes.
 1906 : How to Know the Indian Waders Thacker, Spink and Co. (Calcutta) : vii + 223 p. – réédité et révisé en 1920 chez les mêmes éditeurs : xi + 200 p. – Exemplaire numérique téléchargeable sur Internet Archive : Million Book Project et American Libraries (édition de 1904).
